--- a/Descargas/R15_9º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Diciembre.xlsx
+++ b/Descargas/R15_9º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Diciembre.xlsx
@@ -251,7 +251,7 @@
         </is>
       </c>
       <c r="B5" s="65">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -331,7 +331,7 @@
         </is>
       </c>
       <c r="B13" s="65">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -341,7 +341,7 @@
         </is>
       </c>
       <c r="B14" s="65">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B50" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="B65" s="65">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B82" s="65">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="B104" s="65">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105">
